--- a/271025_Results_Med/output/m1/27102025_mod1_by_travel_mode.xlsx
+++ b/271025_Results_Med/output/m1/27102025_mod1_by_travel_mode.xlsx
@@ -712,11 +712,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>181 (80.4%)</t>
+          <t>181 (80.1%)</t>
         </is>
       </c>
       <c r="I8">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
     </row>
     <row r="9">
@@ -757,11 +757,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32 (14.2%)</t>
+          <t>33 (14.6%)</t>
         </is>
       </c>
       <c r="I9">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="I10">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="I11">
-        <v>0.1851</v>
+        <v>0.1758</v>
       </c>
     </row>
     <row r="12">
